--- a/reports/corpus_1500-unigram_bigram_trigram-fold-4.xlsx
+++ b/reports/corpus_1500-unigram_bigram_trigram-fold-4.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.987460815047022</v>
+        <v>0.9905956112852664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9766666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8449074074074074</v>
+        <v>0.9606481481481481</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9430379746835443</v>
+        <v>0.9936708860759493</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8092643051771117</v>
+        <v>0.9400544959128065</v>
       </c>
       <c r="H2" t="n">
-        <v>0.900990099009901</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>0.852589641434263</v>
+        <v>0.9482071713147411</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4487951807228915</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9533715925394548</v>
+        <v>0.945480631276901</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3742138364779874</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.9099099099099099</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3608695652173913</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3976261127596439</v>
+        <v>0.7922848664688428</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V2" t="n">
-        <v>0.685851716702604</v>
+        <v>0.8724498258417648</v>
       </c>
       <c r="W2" t="n">
-        <v>0.573300436256176</v>
+        <v>0.8733786744023243</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8320222818742575</v>
+        <v>0.8889163980613508</v>
       </c>
     </row>
     <row r="3">
@@ -639,67 +639,67 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9630606860158312</v>
+        <v>0.9928229665071771</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8662790697674418</v>
+        <v>0.8820224719101124</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9426229508196722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9891304347826086</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.99581589958159</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.9059233449477352</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4321951219512195</v>
+        <v>0.6922268907563025</v>
       </c>
       <c r="O3" t="n">
+        <v>0.9970845481049563</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9308510638297872</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="S3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.8924731182795699</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
-        <v>0.8874172185430463</v>
+        <v>0.9164759725400458</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="V3" t="n">
-        <v>0.685851716702604</v>
+        <v>0.8724498258417648</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8158811374453409</v>
+        <v>0.9076783717645066</v>
       </c>
       <c r="X3" t="n">
-        <v>0.685851716702604</v>
+        <v>0.8724498258417648</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9936908517350158</v>
+        <v>0.9952755905511811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.988195615514334</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9001233045622687</v>
+        <v>0.9764705882352941</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9030303030303031</v>
+        <v>0.9345238095238095</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="G4" t="n">
-        <v>0.88</v>
+        <v>0.941336971350614</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9430051813471502</v>
+        <v>0.9748743718592964</v>
       </c>
       <c r="I4" t="n">
-        <v>0.25</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9204301075268817</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5866141732283464</v>
+        <v>0.8400646203554119</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5947639292906691</v>
+        <v>0.7992722862340812</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5446224256292905</v>
+        <v>0.8341463414634146</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9140271493212671</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5139318885448917</v>
+        <v>0.8373205741626796</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5491803278688524</v>
+        <v>0.8498673740053052</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="V4" t="n">
-        <v>0.685851716702604</v>
+        <v>0.8724498258417648</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6338717562003686</v>
+        <v>0.8861552580946936</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6885485357288825</v>
+        <v>0.8705833509906921</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C5" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="E5" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="H5" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K5" t="n">
-        <v>176</v>
+        <v>287</v>
       </c>
       <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
       <c r="N5" t="n">
-        <v>3075</v>
+        <v>1904</v>
       </c>
       <c r="O5" t="n">
-        <v>357</v>
+        <v>686</v>
       </c>
       <c r="P5" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="Q5" t="n">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>453</v>
+        <v>874</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>0.685851716702604</v>
+        <v>0.8724498258417648</v>
       </c>
       <c r="W5" t="n">
         <v>6029</v>
